--- a/data/trans_orig/RUIDO_1-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1-Dificultad-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3577</v>
+        <v>3409</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002199805476820212</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01135499325604811</v>
+        <v>0.01082006205554501</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4257</v>
+        <v>3556</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001196980412871786</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007353135965354294</v>
+        <v>0.006141212441557593</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7962</v>
+        <v>6382</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005140539818116504</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03016582069151205</v>
+        <v>0.024179797229599</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -825,19 +825,19 @@
         <v>2478</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6913</v>
+        <v>7196</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.007867098387001177</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002149409328644697</v>
+        <v>0.002155156625687525</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02194443645097879</v>
+        <v>0.02284150650084141</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -846,19 +846,19 @@
         <v>3835</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9938</v>
+        <v>9990</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.006624142452936845</v>
+        <v>0.006624142452936844</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001875654794585597</v>
+        <v>0.001856042640954694</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01716583191412166</v>
+        <v>0.01725487179129286</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5699</v>
+        <v>5612</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.003805023491886301</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02159233935139727</v>
+        <v>0.02126217662744221</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4036</v>
+        <v>3784</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.002142940017052104</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01281170057390185</v>
+        <v>0.01201284441975203</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6450</v>
+        <v>5989</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00290063381520899</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01114098886886518</v>
+        <v>0.01034342722934252</v>
       </c>
     </row>
     <row r="9">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4330</v>
+        <v>3662</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.002375047836475267</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01374495706899883</v>
+        <v>0.01162336387248184</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>3617</v>
+        <v>3784</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001292335058645166</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.006247736143997267</v>
+        <v>0.006535315637094415</v>
       </c>
     </row>
     <row r="10">
@@ -1103,19 +1103,19 @@
         <v>6468</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19778</v>
+        <v>20857</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02450492782419334</v>
+        <v>0.02450492782419335</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004293116825185488</v>
+        <v>0.004269301913138696</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07493606893834842</v>
+        <v>0.0790227417762666</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1124,19 +1124,19 @@
         <v>3964</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1454</v>
+        <v>1465</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8615</v>
+        <v>8898</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.01258379897153413</v>
+        <v>0.01258379897153412</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004616540405671631</v>
+        <v>0.004651470919410009</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02734586763145838</v>
+        <v>0.02824497938629842</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1145,19 +1145,19 @@
         <v>10432</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4656</v>
+        <v>4292</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25080</v>
+        <v>24583</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01801828257927835</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00804189983350214</v>
+        <v>0.007412919867222107</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04331796911576676</v>
+        <v>0.04246024817351885</v>
       </c>
     </row>
     <row r="11">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6459</v>
+        <v>6722</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004473006545102193</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02447046329939415</v>
+        <v>0.02546707217983972</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1195,19 +1195,19 @@
         <v>3024</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>863</v>
+        <v>714</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7307</v>
+        <v>7600</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.009598697915902118</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002739918166770181</v>
+        <v>0.002266625018063713</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02319549706453797</v>
+        <v>0.0241244729588366</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1216,19 +1216,19 @@
         <v>4205</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1507</v>
+        <v>1385</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9705</v>
+        <v>9362</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007262049593645744</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002603658982313927</v>
+        <v>0.002391486099638154</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01676313817751583</v>
+        <v>0.01617048188596571</v>
       </c>
     </row>
     <row r="12">
@@ -1245,19 +1245,19 @@
         <v>5835</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1537</v>
+        <v>1470</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14219</v>
+        <v>14162</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0221078626041841</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005823144962578419</v>
+        <v>0.005567665616518168</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05387254384840154</v>
+        <v>0.05365744430739972</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -1266,19 +1266,19 @@
         <v>8482</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4707</v>
+        <v>4376</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15428</v>
+        <v>14204</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02692531803637971</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01494063192033092</v>
+        <v>0.01388897848413114</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04897389626099986</v>
+        <v>0.04508574290653786</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -1287,19 +1287,19 @@
         <v>14317</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7961</v>
+        <v>8271</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23799</v>
+        <v>24950</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.02472918519519619</v>
+        <v>0.02472918519519618</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01374955548350212</v>
+        <v>0.01428650624905693</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04110504396561234</v>
+        <v>0.0430938341701434</v>
       </c>
     </row>
     <row r="13">
@@ -1316,19 +1316,19 @@
         <v>9320</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4502</v>
+        <v>4920</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17236</v>
+        <v>17261</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03531262374011169</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01705705668738023</v>
+        <v>0.01864116424801389</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06530456329397213</v>
+        <v>0.06539794663610569</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1337,19 +1337,19 @@
         <v>13938</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8104</v>
+        <v>8296</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23931</v>
+        <v>23146</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04424185181890886</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02572349251197732</v>
+        <v>0.02633258880777822</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07596283555618391</v>
+        <v>0.07347069554037633</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -1358,19 +1358,19 @@
         <v>23258</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15606</v>
+        <v>15077</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35039</v>
+        <v>33583</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04017128566499902</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02695501546715615</v>
+        <v>0.02604168525443799</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0605197393012228</v>
+        <v>0.05800416828934841</v>
       </c>
     </row>
     <row r="14">
@@ -1387,19 +1387,19 @@
         <v>238770</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>224647</v>
+        <v>225243</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>248034</v>
+        <v>248058</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9046560159764061</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8511437303331533</v>
+        <v>0.8534046770832872</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9397546935958698</v>
+        <v>0.9398465659134341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>382</v>
@@ -1408,19 +1408,19 @@
         <v>281032</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>268582</v>
+        <v>270284</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>289544</v>
+        <v>289811</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8920654415399265</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8525469685152077</v>
+        <v>0.8579478034446593</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9190859905512502</v>
+        <v>0.9199320356313411</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>595</v>
@@ -1429,19 +1429,19 @@
         <v>519801</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>501522</v>
+        <v>502310</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>532606</v>
+        <v>533311</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8978051052272179</v>
+        <v>0.8978051052272178</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.866233639933583</v>
+        <v>0.8675947156844183</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9199209451465815</v>
+        <v>0.921139733315068</v>
       </c>
     </row>
     <row r="15">
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8002</v>
+        <v>6606</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002648680057504367</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01583095726096075</v>
+        <v>0.01306900742272481</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1554,19 +1554,19 @@
         <v>2737</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6363</v>
+        <v>6904</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004760435645905046</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001231196256601918</v>
+        <v>0.001213018946479797</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01106931236752323</v>
+        <v>0.01200984514657124</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1575,19 +1575,19 @@
         <v>4075</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1360</v>
+        <v>1335</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9556</v>
+        <v>9493</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.003772353635107757</v>
+        <v>0.003772353635107756</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001258460677645742</v>
+        <v>0.00123547342088829</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008845719924198981</v>
+        <v>0.008787083077102163</v>
       </c>
     </row>
     <row r="17">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5932</v>
+        <v>7951</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.003813889057382081</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01173595669845729</v>
+        <v>0.01572989099941624</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6421</v>
+        <v>6739</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.001784503466913924</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.005943222267061773</v>
+        <v>0.006238014840401099</v>
       </c>
     </row>
     <row r="18">
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9094</v>
+        <v>9390</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.005601214514147017</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01799039778751536</v>
+        <v>0.01857619550924391</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2855</v>
+        <v>3245</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001230384040067773</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0049659078730321</v>
+        <v>0.005645432710233707</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -1709,19 +1709,19 @@
         <v>3539</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10565</v>
+        <v>10555</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.003275478172837679</v>
+        <v>0.003275478172837678</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0006554981251930743</v>
+        <v>0.0006457483583647259</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.009779086556911891</v>
+        <v>0.009770378789021438</v>
       </c>
     </row>
     <row r="19">
@@ -1785,19 +1785,19 @@
         <v>3480</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10421</v>
+        <v>10596</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006883694239597738</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001989442158440015</v>
+        <v>0.001992933740848352</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02061484476079112</v>
+        <v>0.02096162969183926</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1806,19 +1806,19 @@
         <v>2854</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>668</v>
+        <v>691</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6722</v>
+        <v>7171</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.004964652392050052</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001161399608875851</v>
+        <v>0.001201876221681069</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01169274473721294</v>
+        <v>0.01247389033951588</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1827,19 +1827,19 @@
         <v>6334</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2404</v>
+        <v>2603</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13641</v>
+        <v>12871</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.005862564412713918</v>
+        <v>0.005862564412713916</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002224838379920505</v>
+        <v>0.002409446036472696</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01262606641251946</v>
+        <v>0.01191347106583115</v>
       </c>
     </row>
     <row r="21">
@@ -1856,19 +1856,19 @@
         <v>8647</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2719</v>
+        <v>2872</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>24936</v>
+        <v>26765</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01710587822381649</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005379409830896821</v>
+        <v>0.005680953591071142</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04932966834442452</v>
+        <v>0.05294875400238188</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4621</v>
+        <v>4316</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.002233990197151672</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.008038290273634582</v>
+        <v>0.007507405073458387</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -1898,19 +1898,19 @@
         <v>9931</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3949</v>
+        <v>3741</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>29519</v>
+        <v>29192</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.0091924872440888</v>
+        <v>0.009192487244088799</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.003655509593309595</v>
+        <v>0.003463061070937377</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02732383102498952</v>
+        <v>0.02702067744020811</v>
       </c>
     </row>
     <row r="22">
@@ -1927,19 +1927,19 @@
         <v>4071</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>947</v>
+        <v>1031</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9962</v>
+        <v>9829</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008054428116668774</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001873445878333859</v>
+        <v>0.002040418894395683</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01970784581303758</v>
+        <v>0.01944358282821382</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -1948,19 +1948,19 @@
         <v>10376</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4912</v>
+        <v>4827</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21387</v>
+        <v>21351</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01805054969241293</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008544364346375429</v>
+        <v>0.008397618641887148</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03720483607211933</v>
+        <v>0.03714154923641291</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -1969,19 +1969,19 @@
         <v>14448</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8271</v>
+        <v>7845</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25994</v>
+        <v>25236</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0133734043063715</v>
+        <v>0.01337340430637149</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007656181088587136</v>
+        <v>0.007261721480099573</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02406036646333422</v>
+        <v>0.02335911472655844</v>
       </c>
     </row>
     <row r="23">
@@ -1998,19 +1998,19 @@
         <v>9993</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4249</v>
+        <v>4273</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20261</v>
+        <v>20121</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01976940735159079</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.008406526197812958</v>
+        <v>0.008453104276883623</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04008239766161339</v>
+        <v>0.03980548004533492</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -2019,19 +2019,19 @@
         <v>4726</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1985</v>
+        <v>1903</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9167</v>
+        <v>9129</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.008220505781745071</v>
+        <v>0.008220505781745069</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003453632754968905</v>
+        <v>0.003309560834631696</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01594646017079237</v>
+        <v>0.01588064573691556</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>15</v>
@@ -2040,19 +2040,19 @@
         <v>14719</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8024</v>
+        <v>8452</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>26033</v>
+        <v>25287</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.01362419072914723</v>
+        <v>0.01362419072914722</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.007427229926696068</v>
+        <v>0.007823599769823643</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02409733695551514</v>
+        <v>0.02340669473026743</v>
       </c>
     </row>
     <row r="24">
@@ -2069,19 +2069,19 @@
         <v>34755</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21377</v>
+        <v>22250</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>50923</v>
+        <v>54340</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.06875570168590875</v>
+        <v>0.06875570168590876</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04229048740038623</v>
+        <v>0.04401591085979335</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1007397921824189</v>
+        <v>0.1074986782109808</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>37</v>
@@ -2090,19 +2090,19 @@
         <v>23912</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17170</v>
+        <v>17016</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32409</v>
+        <v>33240</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04159607094780399</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02986747761767224</v>
+        <v>0.02960040257400833</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05637673995113056</v>
+        <v>0.05782378903501664</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>61</v>
@@ -2111,19 +2111,19 @@
         <v>58667</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>43508</v>
+        <v>43666</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>78359</v>
+        <v>76906</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.05430395376323075</v>
+        <v>0.05430395376323074</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04027269339542222</v>
+        <v>0.04041884293569332</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07253126882530392</v>
+        <v>0.07118644618268266</v>
       </c>
     </row>
     <row r="25">
@@ -2140,19 +2140,19 @@
         <v>41419</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29660</v>
+        <v>29558</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55521</v>
+        <v>55252</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08193873724147629</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05867495032408349</v>
+        <v>0.05847331389974453</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1098369672669512</v>
+        <v>0.1093032889548798</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>67</v>
@@ -2161,19 +2161,19 @@
         <v>49638</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38190</v>
+        <v>38157</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>63570</v>
+        <v>64039</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0863489035445892</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06643448754342302</v>
+        <v>0.06637713753735335</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1105833338361872</v>
+        <v>0.1113997249983885</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>109</v>
@@ -2182,19 +2182,19 @@
         <v>91057</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>74880</v>
+        <v>75059</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>109802</v>
+        <v>111966</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.08428540433442235</v>
+        <v>0.08428540433442233</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06931113779845403</v>
+        <v>0.06947644802020071</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1016356393526441</v>
+        <v>0.1036389123960666</v>
       </c>
     </row>
     <row r="26">
@@ -2211,19 +2211,19 @@
         <v>397026</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>376027</v>
+        <v>372906</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>417078</v>
+        <v>416244</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7854283695119079</v>
+        <v>0.7854283695119078</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7438853680777825</v>
+        <v>0.7377122096880009</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8250961815196175</v>
+        <v>0.8234463567424551</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>704</v>
@@ -2232,19 +2232,19 @@
         <v>478623</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>460350</v>
+        <v>460164</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>493815</v>
+        <v>495188</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8325945077582743</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8008074096283777</v>
+        <v>0.8004836062739081</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8590218213154992</v>
+        <v>0.8614113981851376</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1100</v>
@@ -2253,19 +2253,19 @@
         <v>875649</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>847328</v>
+        <v>845467</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>902753</v>
+        <v>900772</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8105256599351662</v>
+        <v>0.810525659935166</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7843111842812258</v>
+        <v>0.7825881406431362</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8356141104069161</v>
+        <v>0.8337801164904346</v>
       </c>
     </row>
     <row r="27">
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6141</v>
+        <v>5996</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.003057608595518304</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01016257868207944</v>
+        <v>0.009921960820566672</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4309</v>
+        <v>4306</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.002442958255507312</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.007546238241205129</v>
+        <v>0.007541075748397668</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -2399,19 +2399,19 @@
         <v>3243</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7476</v>
+        <v>8168</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.002758987388769314</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0007247634069404918</v>
+        <v>0.0007118156682207906</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.006361194473050706</v>
+        <v>0.006949544941143701</v>
       </c>
     </row>
     <row r="29">
@@ -2428,19 +2428,19 @@
         <v>3611</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>874</v>
+        <v>908</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8349</v>
+        <v>8971</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.005975770209277332</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001446326436464099</v>
+        <v>0.001503142625119966</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01381557762023248</v>
+        <v>0.01484447721347714</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -2449,19 +2449,19 @@
         <v>2924</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7282</v>
+        <v>7285</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.00512036886124038</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001273855285734114</v>
+        <v>0.001285122134838144</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01275334090815886</v>
+        <v>0.01275754779404556</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8</v>
@@ -2470,19 +2470,19 @@
         <v>6535</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3078</v>
+        <v>3064</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12950</v>
+        <v>13127</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.005560182734289618</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002618889463826128</v>
+        <v>0.002607162881941193</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01101841221956164</v>
+        <v>0.0111685129710427</v>
       </c>
     </row>
     <row r="30">
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5622</v>
+        <v>5588</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.00184978151177907</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.009302598689751695</v>
+        <v>0.009247262581527074</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6251</v>
+        <v>6867</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.003308688037796486</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01094726017840683</v>
+        <v>0.01202668080910264</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -2541,19 +2541,19 @@
         <v>3007</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>8011</v>
+        <v>8375</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.002558575437322992</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0005809470554689202</v>
+        <v>0.0005859440948864915</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.006815902220774198</v>
+        <v>0.007125664491641256</v>
       </c>
     </row>
     <row r="31">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>3319</v>
+        <v>3915</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.001251542703815401</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.005812002052337692</v>
+        <v>0.006857007685542775</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3291</v>
+        <v>3216</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0006080484597219374</v>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.002800135501614338</v>
+        <v>0.002735858736512559</v>
       </c>
     </row>
     <row r="32">
@@ -2633,19 +2633,19 @@
         <v>5191</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1736</v>
+        <v>1137</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>14315</v>
+        <v>13918</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.008589443388091582</v>
+        <v>0.00858944338809158</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002871979295937238</v>
+        <v>0.001882152327117295</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0236875291313451</v>
+        <v>0.02303132742368564</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>11</v>
@@ -2654,19 +2654,19 @@
         <v>8316</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4149</v>
+        <v>4464</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>15498</v>
+        <v>15281</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01456333418535427</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.007265801348140846</v>
+        <v>0.007816863974354242</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02714140049597446</v>
+        <v>0.02676109288666841</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>15</v>
@@ -2675,19 +2675,19 @@
         <v>13507</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>7247</v>
+        <v>7434</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>23168</v>
+        <v>22144</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0114917934930852</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006166133412515373</v>
+        <v>0.006325369419474296</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01971155870773391</v>
+        <v>0.01884098592645624</v>
       </c>
     </row>
     <row r="33">
@@ -2704,19 +2704,19 @@
         <v>6055</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2084</v>
+        <v>2381</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>12612</v>
+        <v>12911</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01002050413655596</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.003448417372406601</v>
+        <v>0.003940179562677537</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02087040310909838</v>
+        <v>0.02136535062673297</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>6</v>
@@ -2725,19 +2725,19 @@
         <v>4486</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1743</v>
+        <v>1868</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>10671</v>
+        <v>9948</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.007856759344416325</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.003051562173712499</v>
+        <v>0.003271074236348441</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01868808661835887</v>
+        <v>0.01742161465717451</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>12</v>
@@ -2746,19 +2746,19 @@
         <v>10542</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>5714</v>
+        <v>5502</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>19672</v>
+        <v>18320</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.00896927217772547</v>
+        <v>0.008969272177725468</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.004861387090729446</v>
+        <v>0.004680831872553273</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01673706276859841</v>
+        <v>0.01558683891088561</v>
       </c>
     </row>
     <row r="34">
@@ -2775,19 +2775,19 @@
         <v>13852</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6489</v>
+        <v>7521</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>25614</v>
+        <v>26072</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02292248508050074</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01073831452561312</v>
+        <v>0.0124448132982892</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04238565355051065</v>
+        <v>0.04314299223995966</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>16</v>
@@ -2796,19 +2796,19 @@
         <v>14250</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8146</v>
+        <v>8163</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>24766</v>
+        <v>24643</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02495592356906753</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01426648831530361</v>
+        <v>0.01429600705858991</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04337213828324454</v>
+        <v>0.04315578398078963</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>28</v>
@@ -2817,19 +2817,19 @@
         <v>28103</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>18461</v>
+        <v>18704</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>41962</v>
+        <v>41939</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02391040913386545</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.015707220350078</v>
+        <v>0.01591424644763047</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03570268193126192</v>
+        <v>0.03568311841316701</v>
       </c>
     </row>
     <row r="35">
@@ -2846,19 +2846,19 @@
         <v>10386</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4451</v>
+        <v>4519</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>20438</v>
+        <v>19510</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01718674385219567</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.007365360092470406</v>
+        <v>0.007477795215864683</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03382089143482924</v>
+        <v>0.03228422740706127</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>8</v>
@@ -2867,19 +2867,19 @@
         <v>4491</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2145</v>
+        <v>1986</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>8907</v>
+        <v>8661</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.007865339243417884</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003756647675486923</v>
+        <v>0.003477947739894592</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01559880541898827</v>
+        <v>0.01516717473336746</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>18</v>
@@ -2888,19 +2888,19 @@
         <v>14877</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>8787</v>
+        <v>8636</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>25963</v>
+        <v>25649</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01265804043877359</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.007476487098587265</v>
+        <v>0.007347556092618903</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02209009706710681</v>
+        <v>0.02182312368449119</v>
       </c>
     </row>
     <row r="36">
@@ -2917,19 +2917,19 @@
         <v>30010</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>19624</v>
+        <v>19283</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>47441</v>
+        <v>47049</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04966083011961493</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03247311366425119</v>
+        <v>0.03190875736947966</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.078504293654045</v>
+        <v>0.07785618689040201</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>29</v>
@@ -2938,19 +2938,19 @@
         <v>21118</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>14091</v>
+        <v>14618</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>30392</v>
+        <v>30340</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03698270320388844</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02467625333297333</v>
+        <v>0.02559967609762516</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05322338368768108</v>
+        <v>0.05313311087582712</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>55</v>
@@ -2959,19 +2959,19 @@
         <v>51128</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>37804</v>
+        <v>38382</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>69940</v>
+        <v>70671</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04350129955005014</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0321645255054227</v>
+        <v>0.03265668243641173</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05950677991829402</v>
+        <v>0.06012867773162075</v>
       </c>
     </row>
     <row r="37">
@@ -2988,19 +2988,19 @@
         <v>86658</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>71197</v>
+        <v>69881</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>106874</v>
+        <v>105504</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1434010007638893</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1178150818790458</v>
+        <v>0.1156377979373418</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1768528634444193</v>
+        <v>0.1745872557070552</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>95</v>
@@ -3009,19 +3009,19 @@
         <v>66629</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>53770</v>
+        <v>54734</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>81269</v>
+        <v>84108</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.116683436645349</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09416452924307576</v>
+        <v>0.09585312576046377</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.142321604449054</v>
+        <v>0.1472942220117119</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>187</v>
@@ -3030,19 +3030,19 @@
         <v>153287</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>132418</v>
+        <v>130832</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>181159</v>
+        <v>177592</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1304205617742527</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1126645058798359</v>
+        <v>0.1113156271403236</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1541346627132849</v>
+        <v>0.1510999024257811</v>
       </c>
     </row>
     <row r="38">
@@ -3059,19 +3059,19 @@
         <v>445578</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>418466</v>
+        <v>421260</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>468031</v>
+        <v>467761</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7373358323425772</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6924716069666773</v>
+        <v>0.69709525249497</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7744912459883989</v>
+        <v>0.7740445507491603</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>672</v>
@@ -3080,19 +3080,19 @@
         <v>444808</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>426210</v>
+        <v>426403</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>462947</v>
+        <v>460706</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.778968945950147</v>
+        <v>0.7789689459501471</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7464004865531549</v>
+        <v>0.7467371372731055</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.810735443718517</v>
+        <v>0.8068116033475152</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1126</v>
@@ -3101,19 +3101,19 @@
         <v>890386</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>859317</v>
+        <v>861514</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>918437</v>
+        <v>920317</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7575628294121435</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.731128611526864</v>
+        <v>0.7329984924912624</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7814295352843359</v>
+        <v>0.7830291145073502</v>
       </c>
     </row>
     <row r="39">
@@ -3205,19 +3205,19 @@
         <v>8388</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3502</v>
+        <v>3863</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>17327</v>
+        <v>17285</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02126099078540153</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.008875031876736416</v>
+        <v>0.009792476769641999</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04391692735791865</v>
+        <v>0.04381133008360369</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3</v>
@@ -3226,19 +3226,19 @@
         <v>2791</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>8248</v>
+        <v>8168</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.007522927826246054</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001263211135867687</v>
+        <v>0.001262259700946502</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02223179046789804</v>
+        <v>0.02201516420484424</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>10</v>
@@ -3247,19 +3247,19 @@
         <v>11179</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>5583</v>
+        <v>5780</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>21818</v>
+        <v>20330</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01460308171777219</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.007293440960225364</v>
+        <v>0.007550248954396731</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02849958578042771</v>
+        <v>0.0265565285491953</v>
       </c>
     </row>
     <row r="41">
@@ -3276,19 +3276,19 @@
         <v>8616</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3325</v>
+        <v>3014</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>17781</v>
+        <v>17778</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02183933637571712</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.008427989731680548</v>
+        <v>0.007640068366122106</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04506831273801153</v>
+        <v>0.04506045731091297</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>7</v>
@@ -3297,19 +3297,19 @@
         <v>4939</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2154</v>
+        <v>2068</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>9821</v>
+        <v>9660</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01331234359159441</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.005805408740481041</v>
+        <v>0.005575304178555274</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02647027211223001</v>
+        <v>0.02603793034643001</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>14</v>
@@ -3318,19 +3318,19 @@
         <v>13555</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>7680</v>
+        <v>7144</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>26005</v>
+        <v>23189</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01770688023937471</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01003201187420611</v>
+        <v>0.009331956834289888</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03396977480525352</v>
+        <v>0.03029091800204733</v>
       </c>
     </row>
     <row r="42">
@@ -3410,16 +3410,16 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>6820</v>
+        <v>6889</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.005107497912704681</v>
+        <v>0.00510749791270468</v>
       </c>
       <c r="O43" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.01838132214107675</v>
+        <v>0.0185678120381482</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>2</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>6714</v>
+        <v>6402</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.002475258467441527</v>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.008769856866364955</v>
+        <v>0.00836269706106617</v>
       </c>
     </row>
     <row r="44">
@@ -3457,19 +3457,19 @@
         <v>4798</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1675</v>
+        <v>1824</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>11171</v>
+        <v>10951</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01216148987334983</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.004244954018179304</v>
+        <v>0.00462230968894617</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02831452931375897</v>
+        <v>0.02775651085972278</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>8</v>
@@ -3478,19 +3478,19 @@
         <v>4764</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2153</v>
+        <v>2238</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>8704</v>
+        <v>9787</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01284073548650598</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.005802939320085503</v>
+        <v>0.006032218127398091</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02346172110920383</v>
+        <v>0.02637974135242513</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>13</v>
@@ -3499,19 +3499,19 @@
         <v>9562</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>5107</v>
+        <v>5087</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>16554</v>
+        <v>16206</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01249067423801792</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.006671316593001627</v>
+        <v>0.006644564105936895</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02162386156567888</v>
+        <v>0.02116889851109536</v>
       </c>
     </row>
     <row r="45">
@@ -3528,19 +3528,19 @@
         <v>4501</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>1180</v>
+        <v>1590</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>11257</v>
+        <v>12236</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.01140759595974913</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.002990299709149321</v>
+        <v>0.004029993231249356</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.02853265387910106</v>
+        <v>0.03101277430495147</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>5</v>
@@ -3549,19 +3549,19 @@
         <v>3921</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>1389</v>
+        <v>1404</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>8881</v>
+        <v>8564</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.01056751616066151</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.003742565302521863</v>
+        <v>0.003785386042369593</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.02393656799113388</v>
+        <v>0.02308369239751868</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>9</v>
@@ -3570,19 +3570,19 @@
         <v>8421</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>3857</v>
+        <v>3948</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>15555</v>
+        <v>15222</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.0110004661534215</v>
+        <v>0.01100046615342151</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.005038880121000092</v>
+        <v>0.005157781622873104</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.02031894609395401</v>
+        <v>0.01988366153730717</v>
       </c>
     </row>
     <row r="46">
@@ -3599,19 +3599,19 @@
         <v>9889</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>3972</v>
+        <v>3982</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>26694</v>
+        <v>29800</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.02506562256921799</v>
+        <v>0.025065622569218</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01006725141411532</v>
+        <v>0.01009339101415168</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.0676596070192016</v>
+        <v>0.07553191822873423</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>16</v>
@@ -3620,19 +3620,19 @@
         <v>13232</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>7075</v>
+        <v>7072</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>24752</v>
+        <v>24501</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.03566471314000536</v>
+        <v>0.03566471314000534</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0190691003125497</v>
+        <v>0.0190616573014548</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.06671474269639194</v>
+        <v>0.06603865662340117</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>24</v>
@@ -3641,19 +3641,19 @@
         <v>23121</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>14490</v>
+        <v>14224</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>40132</v>
+        <v>41557</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.03020228422448004</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01892772362534381</v>
+        <v>0.018580768446904</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.05242298603031199</v>
+        <v>0.05428442621398</v>
       </c>
     </row>
     <row r="47">
@@ -3670,19 +3670,19 @@
         <v>12844</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>6860</v>
+        <v>6634</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>25169</v>
+        <v>24133</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.03255519856362529</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01738637635461261</v>
+        <v>0.01681398170045409</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.06379527448447601</v>
+        <v>0.06116899089268543</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>11</v>
@@ -3691,19 +3691,19 @@
         <v>6641</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3438</v>
+        <v>3414</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>11584</v>
+        <v>11158</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.01789910504911636</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.009266873418821819</v>
+        <v>0.00920309247836028</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.03122367448521508</v>
+        <v>0.03007432262744662</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>23</v>
@@ -3712,19 +3712,19 @@
         <v>19485</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>12513</v>
+        <v>12532</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>31318</v>
+        <v>32497</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.02545238223526927</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01634480248641925</v>
+        <v>0.01637006501589216</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.04090952752713609</v>
+        <v>0.0424500394979823</v>
       </c>
     </row>
     <row r="48">
@@ -3741,19 +3741,19 @@
         <v>25917</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>16090</v>
+        <v>16493</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>41196</v>
+        <v>40492</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.06568941455627231</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.04078275503698686</v>
+        <v>0.04180343933524067</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1044173815061785</v>
+        <v>0.1026327083200264</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>47</v>
@@ -3762,19 +3762,19 @@
         <v>31298</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>22785</v>
+        <v>23239</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>42578</v>
+        <v>42939</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.08435982982665903</v>
+        <v>0.08435982982665902</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.06141430292777189</v>
+        <v>0.06263728783002528</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1147631634532144</v>
+        <v>0.1157366133537863</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>69</v>
@@ -3783,19 +3783,19 @@
         <v>57215</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>43079</v>
+        <v>43900</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>73987</v>
+        <v>75030</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.07473770087543431</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.05627306412925222</v>
+        <v>0.05734552407685938</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.09664647765109116</v>
+        <v>0.09800861563794991</v>
       </c>
     </row>
     <row r="49">
@@ -3812,19 +3812,19 @@
         <v>62642</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>50762</v>
+        <v>50711</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>78656</v>
+        <v>76376</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1587751609310781</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1286633294481853</v>
+        <v>0.1285338181137957</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1993626405586056</v>
+        <v>0.1935836916439516</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>131</v>
@@ -3833,19 +3833,19 @@
         <v>64866</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>55278</v>
+        <v>53696</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>77623</v>
+        <v>75982</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1748371153976428</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1489941288568196</v>
+        <v>0.1447306547646323</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2092239981198022</v>
+        <v>0.2048008962690628</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>212</v>
@@ -3854,19 +3854,19 @@
         <v>127508</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>111045</v>
+        <v>110175</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>146525</v>
+        <v>145716</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1665593028879704</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1450535276552302</v>
+        <v>0.1439180146927517</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1913997854619085</v>
+        <v>0.1903437676802097</v>
       </c>
     </row>
     <row r="50">
@@ -3883,19 +3883,19 @@
         <v>256939</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>235089</v>
+        <v>237157</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>276266</v>
+        <v>276790</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.6512451903855888</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5958634998686904</v>
+        <v>0.6011049717079431</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.7002327541708434</v>
+        <v>0.7015597034334085</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>368</v>
@@ -3904,19 +3904,19 @@
         <v>236660</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>220558</v>
+        <v>218239</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>252156</v>
+        <v>252498</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.6378882156088639</v>
+        <v>0.6378882156088638</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.5944864363300266</v>
+        <v>0.5882366594410533</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.6796553854049499</v>
+        <v>0.6805757174929846</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>633</v>
@@ -3925,19 +3925,19 @@
         <v>493600</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>464610</v>
+        <v>471715</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>515491</v>
+        <v>520735</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.6447719689608181</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.6069033275210172</v>
+        <v>0.616184604804376</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.6733671469635325</v>
+        <v>0.6802175760750658</v>
       </c>
     </row>
     <row r="51">
@@ -4029,19 +4029,19 @@
         <v>11575</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>5334</v>
+        <v>5311</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>20954</v>
+        <v>21447</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.006545859144300061</v>
+        <v>0.006545859144300058</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.003016786190651869</v>
+        <v>0.003003497287306481</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01185017487706888</v>
+        <v>0.01212876955571373</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>10</v>
@@ -4050,19 +4050,19 @@
         <v>7616</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>3483</v>
+        <v>3629</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>13402</v>
+        <v>13524</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.004157181303490798</v>
+        <v>0.004157181303490799</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.001901243876824825</v>
+        <v>0.001981087949022959</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.007315739418397759</v>
+        <v>0.007382501839971501</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>20</v>
@@ -4071,19 +4071,19 @@
         <v>19190</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>12029</v>
+        <v>11584</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>30189</v>
+        <v>32022</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.005330404625117211</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.003341196190377994</v>
+        <v>0.003217576862142945</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.00838545667912427</v>
+        <v>0.008894672487439602</v>
       </c>
     </row>
     <row r="53">
@@ -4100,19 +4100,19 @@
         <v>15512</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>8497</v>
+        <v>8839</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>27157</v>
+        <v>27212</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.008772565725230686</v>
+        <v>0.008772565725230684</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.004805155382106947</v>
+        <v>0.004998809954091853</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01535805944906809</v>
+        <v>0.01538905827141581</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>14</v>
@@ -4121,19 +4121,19 @@
         <v>10341</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>5813</v>
+        <v>6031</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>16492</v>
+        <v>16867</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.005645015249918301</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.003173157397970223</v>
+        <v>0.003291934859413866</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.009002416973717979</v>
+        <v>0.009207058469381711</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>28</v>
@@ -4142,19 +4142,19 @@
         <v>25853</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>17338</v>
+        <v>17302</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>38550</v>
+        <v>38260</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.007181143351628797</v>
+        <v>0.007181143351628796</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.004815830878576061</v>
+        <v>0.004805774699530798</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.0107076928815823</v>
+        <v>0.01062735990351818</v>
       </c>
     </row>
     <row r="54">
@@ -4171,19 +4171,19 @@
         <v>3949</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>11769</v>
+        <v>11713</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.002233369270950044</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.0006337620184112174</v>
+        <v>0.000634826765796173</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.006655418310009924</v>
+        <v>0.006623792374741642</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>3</v>
@@ -4192,19 +4192,19 @@
         <v>2597</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>8387</v>
+        <v>7673</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.00141743430775363</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.0003791103940690846</v>
+        <v>0.0003738251757676036</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.004578063684956867</v>
+        <v>0.004188540096786488</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>6</v>
@@ -4213,19 +4213,19 @@
         <v>6546</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>2526</v>
+        <v>2307</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>14809</v>
+        <v>14209</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.001818189031307354</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.0007016895077281043</v>
+        <v>0.0006408402514813495</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.004113392113364577</v>
+        <v>0.003946726115740473</v>
       </c>
     </row>
     <row r="55">
@@ -4255,19 +4255,19 @@
         <v>2610</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>7339</v>
+        <v>7896</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.001424501436739123</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.0003877144553981114</v>
+        <v>0.0003895217913047656</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.004006004409405048</v>
+        <v>0.004309969421266547</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>3</v>
@@ -4276,19 +4276,19 @@
         <v>2610</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>7318</v>
+        <v>7670</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.0007248431242115267</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.0001972288105350755</v>
+        <v>0.0001985948333606244</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.002032781015974951</v>
+        <v>0.002130547321003423</v>
       </c>
     </row>
     <row r="56">
@@ -4305,19 +4305,19 @@
         <v>14473</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>7823</v>
+        <v>7985</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>26170</v>
+        <v>25474</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.008184689035634806</v>
+        <v>0.008184689035634803</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.004424353339141921</v>
+        <v>0.004515782576882578</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.01479974930887145</v>
+        <v>0.01440636408471003</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>24</v>
@@ -4326,19 +4326,19 @@
         <v>16609</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>11014</v>
+        <v>10013</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>25009</v>
+        <v>24021</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.00906646430135726</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.006012540822905773</v>
+        <v>0.005465719089236669</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.01365176050872442</v>
+        <v>0.01311263828539518</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>37</v>
@@ -4347,19 +4347,19 @@
         <v>31082</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>21790</v>
+        <v>21911</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>44502</v>
+        <v>42480</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.008633371446178253</v>
+        <v>0.008633371446178251</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.006052387681443946</v>
+        <v>0.006086194480531917</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.01236095066462221</v>
+        <v>0.01179941598162182</v>
       </c>
     </row>
     <row r="57">
@@ -4376,19 +4376,19 @@
         <v>19203</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>10636</v>
+        <v>10972</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>37907</v>
+        <v>38031</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.01085979117996863</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.006014683750869542</v>
+        <v>0.00620511493222947</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.02143718742590862</v>
+        <v>0.02150773712199873</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>14</v>
@@ -4397,19 +4397,19 @@
         <v>10439</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>5402</v>
+        <v>5995</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>16835</v>
+        <v>17458</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.005698634496861693</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.002948560296348968</v>
+        <v>0.003272365211770415</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.009189812870149593</v>
+        <v>0.009529880351880203</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>29</v>
@@ -4418,19 +4418,19 @@
         <v>29642</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>19865</v>
+        <v>19247</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>48250</v>
+        <v>45465</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.008233588890350618</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.005517855054896138</v>
+        <v>0.005346227137027667</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.01340221655598337</v>
+        <v>0.01262859923182475</v>
       </c>
     </row>
     <row r="58">
@@ -4447,19 +4447,19 @@
         <v>34281</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>22243</v>
+        <v>21258</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>55671</v>
+        <v>53512</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.01938656826761464</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.0125791373815306</v>
+        <v>0.01202215637091152</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.03148361422951585</v>
+        <v>0.0302621306140982</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>47</v>
@@ -4468,19 +4468,19 @@
         <v>41823</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>30313</v>
+        <v>29758</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>58246</v>
+        <v>58612</v>
       </c>
       <c r="N58" s="6" t="n">
-        <v>0.02283016230316094</v>
+        <v>0.02283016230316095</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.01654736040738677</v>
+        <v>0.01624434479586612</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.0317950711330833</v>
+        <v>0.03199512926068956</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>74</v>
@@ -4489,19 +4489,19 @@
         <v>76104</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>57770</v>
+        <v>57727</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>100955</v>
+        <v>102371</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.02113880620494898</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.01604643085672606</v>
+        <v>0.01603431208424123</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.02804146813777219</v>
+        <v>0.02843490152099695</v>
       </c>
     </row>
     <row r="59">
@@ -4518,19 +4518,19 @@
         <v>34404</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>22945</v>
+        <v>23084</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>49380</v>
+        <v>51477</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.01945637458276634</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.0129761677349704</v>
+        <v>0.0130547973431268</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.02792570098363295</v>
+        <v>0.0291113034230143</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>30</v>
@@ -4539,19 +4539,19 @@
         <v>18881</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>12853</v>
+        <v>12593</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>26915</v>
+        <v>26762</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.01030694783138883</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.007016412699869351</v>
+        <v>0.006874103488922957</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.01469249678980403</v>
+        <v>0.01460866048829988</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>61</v>
@@ -4560,19 +4560,19 @@
         <v>53286</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>40017</v>
+        <v>39479</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>68544</v>
+        <v>69892</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.01480078147477039</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.01111525626454751</v>
+        <v>0.01096592981823053</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.01903900157614181</v>
+        <v>0.01941344759526551</v>
       </c>
     </row>
     <row r="60">
@@ -4589,19 +4589,19 @@
         <v>96518</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>73770</v>
+        <v>74876</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>124241</v>
+        <v>123586</v>
       </c>
       <c r="G60" s="6" t="n">
-        <v>0.05458312066913594</v>
+        <v>0.05458312066913593</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.04171901396688657</v>
+        <v>0.0423445226347481</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.07026121361508918</v>
+        <v>0.06989109254809033</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>126</v>
@@ -4610,19 +4610,19 @@
         <v>84810</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>68570</v>
+        <v>69685</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>102095</v>
+        <v>100916</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.04629578827800863</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.03743057421528046</v>
+        <v>0.03803918121995706</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.05573132502975456</v>
+        <v>0.05508750519842567</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>202</v>
@@ -4631,19 +4631,19 @@
         <v>181328</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>155311</v>
+        <v>154350</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>213231</v>
+        <v>212541</v>
       </c>
       <c r="U60" s="6" t="n">
-        <v>0.05036619554232458</v>
+        <v>0.05036619554232457</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.04313971138761418</v>
+        <v>0.04287285424086143</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.05922789477447648</v>
+        <v>0.05903612185813286</v>
       </c>
     </row>
     <row r="61">
@@ -4660,19 +4660,19 @@
         <v>200040</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>174388</v>
+        <v>175663</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>226603</v>
+        <v>225462</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.1131277771448093</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.09862066233767244</v>
+        <v>0.0993419177651813</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.1281496707786483</v>
+        <v>0.1275044509390974</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>311</v>
@@ -4681,19 +4681,19 @@
         <v>195070</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>173048</v>
+        <v>173872</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>217505</v>
+        <v>220840</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.1064841599554185</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.09446295879833022</v>
+        <v>0.09491260984297438</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.1187309288097698</v>
+        <v>0.1205513497329561</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>536</v>
@@ -4702,19 +4702,19 @@
         <v>395111</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>364785</v>
+        <v>360407</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>433008</v>
+        <v>430535</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.1097472398456354</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.1013238724147768</v>
+        <v>0.1001079059331942</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.1202737056174706</v>
+        <v>0.1195869808090576</v>
       </c>
     </row>
     <row r="62">
@@ -4731,19 +4731,19 @@
         <v>1338313</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>1295831</v>
+        <v>1298741</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>1379638</v>
+        <v>1378418</v>
       </c>
       <c r="G62" s="6" t="n">
-        <v>0.7568498849795896</v>
+        <v>0.7568498849795895</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.7328249082510591</v>
+        <v>0.7344707123981077</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.7802200210310032</v>
+        <v>0.7795299474268776</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>2126</v>
@@ -4752,19 +4752,19 @@
         <v>1441122</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>1410113</v>
+        <v>1409691</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>1475064</v>
+        <v>1472450</v>
       </c>
       <c r="N62" s="6" t="n">
-        <v>0.7866737105359022</v>
+        <v>0.7866737105359023</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.7697465555917523</v>
+        <v>0.7695163199194492</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.8052019801067104</v>
+        <v>0.8037752443695299</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>3454</v>
@@ -4773,19 +4773,19 @@
         <v>2779436</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>2724989</v>
+        <v>2724796</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>2825485</v>
+        <v>2828853</v>
       </c>
       <c r="U62" s="6" t="n">
-        <v>0.7720254364635271</v>
+        <v>0.7720254364635268</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.7569020683590307</v>
+        <v>0.7568483513965546</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.7848160443931539</v>
+        <v>0.7857517724802535</v>
       </c>
     </row>
     <row r="63">
